--- a/biology/Médecine/CIM-10_Chapitre_17___Malformations_congénitales_et_anomalies_chromosomiques/CIM-10_Chapitre_17___Malformations_congénitales_et_anomalies_chromosomiques.xlsx
+++ b/biology/Médecine/CIM-10_Chapitre_17___Malformations_congénitales_et_anomalies_chromosomiques/CIM-10_Chapitre_17___Malformations_congénitales_et_anomalies_chromosomiques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_17_:_Malformations_cong%C3%A9nitales_et_anomalies_chromosomiques</t>
+          <t>CIM-10_Chapitre_17_:_Malformations_congénitales_et_anomalies_chromosomiques</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet article développe le chapitre XVII de la classification internationale des maladies, CIM-10[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet article développe le chapitre XVII de la classification internationale des maladies, CIM-10.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_17_:_Malformations_cong%C3%A9nitales_et_anomalies_chromosomiques</t>
+          <t>CIM-10_Chapitre_17_:_Malformations_congénitales_et_anomalies_chromosomiques</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Q00-Q07 - Malformations congénitales du système nerveux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(QQ00) Anencéphalie et malformations similaires
 (Q00.0) Anencéphalie (Acéphalie, Acrânie, Anencéphalomyélie, Hémianencéphalie, Hémicéphalie)
@@ -571,7 +585,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_17_:_Malformations_cong%C3%A9nitales_et_anomalies_chromosomiques</t>
+          <t>CIM-10_Chapitre_17_:_Malformations_congénitales_et_anomalies_chromosomiques</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -589,7 +603,9 @@
           <t>Q10-Q18 - Malformations congénitales de l'œil, de l'oreille, de la face et du cou</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(Q10) Malformations congénitales des paupières, de l'appareil lacrymal et de l'orbite
 (Q10.0) Ptosis congénital
@@ -670,7 +686,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_17_:_Malformations_cong%C3%A9nitales_et_anomalies_chromosomiques</t>
+          <t>CIM-10_Chapitre_17_:_Malformations_congénitales_et_anomalies_chromosomiques</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -688,7 +704,9 @@
           <t>Q20-Q28 - Malformations congénitales de l'appareil circulatoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(Q20) Malformations congénitales des cavités et des orifices cardiaques
 (Q20.0) Tronc artériel commun
@@ -781,7 +799,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_17_:_Malformations_cong%C3%A9nitales_et_anomalies_chromosomiques</t>
+          <t>CIM-10_Chapitre_17_:_Malformations_congénitales_et_anomalies_chromosomiques</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -799,7 +817,9 @@
           <t>Q30-Q34 - Malformations congénitales de l'appareil respiratoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(Q30) Malformations congénitales du nez
 (Q30.0) Atrésie des choanes
@@ -846,7 +866,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_17_:_Malformations_cong%C3%A9nitales_et_anomalies_chromosomiques</t>
+          <t>CIM-10_Chapitre_17_:_Malformations_congénitales_et_anomalies_chromosomiques</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -864,7 +884,9 @@
           <t>Q35-Q37 - Fente labiale et fente palatine</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(Q35) Fente palatine
 (Q35.1) Fente de la voûte du palais
@@ -894,7 +916,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_17_:_Malformations_cong%C3%A9nitales_et_anomalies_chromosomiques</t>
+          <t>CIM-10_Chapitre_17_:_Malformations_congénitales_et_anomalies_chromosomiques</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -912,7 +934,9 @@
           <t>Q38-Q45 - Autres malformations congénitales de l'appareil digestif</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(Q38) Autres malformations congénitales de la langue, de la bouche et du pharynx
 (Q38.0) Malformations congénitales des lèvres, non classées ailleurs (Syndrome de Van der Woude)
@@ -990,7 +1014,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_17_:_Malformations_cong%C3%A9nitales_et_anomalies_chromosomiques</t>
+          <t>CIM-10_Chapitre_17_:_Malformations_congénitales_et_anomalies_chromosomiques</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1008,7 +1032,9 @@
           <t>Q50-Q56 - Malformations congénitales des organes génitaux</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>(Q50) Malformations congénitales des ovaires, des trompes de Fallope et des ligaments larges
 (Q50.0) Absence congénitale d'ovaire(s)
@@ -1078,7 +1104,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_17_:_Malformations_cong%C3%A9nitales_et_anomalies_chromosomiques</t>
+          <t>CIM-10_Chapitre_17_:_Malformations_congénitales_et_anomalies_chromosomiques</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1096,7 +1122,9 @@
           <t>Q60-Q64 - Malformations congénitales de l'appareil urinaire</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>(Q60) Agénésie rénale et autres défauts de développement rénal
 (Q60.0) Agénésie rénale, unilatérale
@@ -1152,7 +1180,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_17_:_Malformations_cong%C3%A9nitales_et_anomalies_chromosomiques</t>
+          <t>CIM-10_Chapitre_17_:_Malformations_congénitales_et_anomalies_chromosomiques</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1170,7 +1198,9 @@
           <t>Q65-Q79 - Malformations congénitales du système ostéo-articulaire et des muscles</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>(Q65) Anomalies morphologiques congénitales de la hanche
 (Q65.0) Luxation congénitale de la hanche, unilatérale
@@ -1315,7 +1345,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_17_:_Malformations_cong%C3%A9nitales_et_anomalies_chromosomiques</t>
+          <t>CIM-10_Chapitre_17_:_Malformations_congénitales_et_anomalies_chromosomiques</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1333,7 +1363,9 @@
           <t>Q80-Q89 - Autres malformations congénitales</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>(Q80) Ichtyose congénitale
 (Q80.0) Ichtyose vulgaire
@@ -1411,7 +1443,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_17_:_Malformations_cong%C3%A9nitales_et_anomalies_chromosomiques</t>
+          <t>CIM-10_Chapitre_17_:_Malformations_congénitales_et_anomalies_chromosomiques</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1429,7 +1461,9 @@
           <t>Q90-Q99 - Anomalies chromosomiques, non classées ailleurs</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">(Q90) Syndrome de Down
 (Q90.0) Trisomie 21, non-disjonction méïotique
